--- a/docs/資料.xlsx
+++ b/docs/資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\rails\owntask_app\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357D6FFC-3945-427D-B4C5-AFA731546F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF9BFAE-86EE-40E0-AA26-8D59B9646E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="195" windowWidth="17460" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="195" windowWidth="17460" windowHeight="14715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="49">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -125,79 +125,71 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>users</t>
+    <t>email</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password_digest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>labels</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>with: /\A[\w+\-.]+@[a-z\d\-.]+\.[a-z]+\z/i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email.downcase!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>label_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max: 30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max: 255</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min: 6</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>tasks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>password_digest</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unique</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>labels</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>with: /\A[\w+\-.]+@[a-z\d\-.]+\.[a-z]+\z/i</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>email.downcase!</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>label_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>max: 30</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>max: 255</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>min: 6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tasks</t>
   </si>
   <si>
     <t>アソシエーション</t>
@@ -226,6 +218,18 @@
   </si>
   <si>
     <t>lables</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>label</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -924,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9F6E6D-B6FA-4E5E-9AD5-46BC1F92CD2C}">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -940,23 +944,23 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -964,18 +968,18 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -993,7 +997,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -1001,17 +1005,17 @@
         <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +1030,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1063,54 +1067,54 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
       <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1">
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1123,7 +1127,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1137,7 +1141,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1151,7 +1155,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -1165,7 +1169,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -1179,17 +1183,17 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1203,21 +1207,21 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -1226,16 +1230,16 @@
     <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1249,45 +1253,45 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1308,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519E0E5B-B368-4DCE-9760-A91E463FC801}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1340,7 +1344,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J1" s="10"/>
     </row>
@@ -1370,18 +1374,18 @@
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1395,7 +1399,7 @@
     <row r="4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1405,13 +1409,13 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1420,10 +1424,10 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1520,10 +1524,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1545,19 +1549,19 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -1567,13 +1571,13 @@
         <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1581,17 +1585,17 @@
     <row r="15" spans="1:10">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1612,10 +1616,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1629,7 +1633,7 @@
     <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1643,7 +1647,7 @@
     <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -1654,10 +1658,10 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/資料.xlsx
+++ b/docs/資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\rails\owntask_app\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF9BFAE-86EE-40E0-AA26-8D59B9646E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8246D951-558A-4BC0-B3CC-5C662F26D8C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="195" windowWidth="17460" windowHeight="14715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="195" windowWidth="17460" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="3" r:id="rId1"/>
@@ -563,67 +563,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="円弧 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9423E0-B62D-4D31-B4DE-6111CDC6C1B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3400425" y="590549"/>
-          <a:ext cx="600075" cy="1933575"/>
-        </a:xfrm>
-        <a:prstGeom prst="arc">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 16200000"/>
-            <a:gd name="adj2" fmla="val 5408224"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -928,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9F6E6D-B6FA-4E5E-9AD5-46BC1F92CD2C}">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1312,7 +1251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519E0E5B-B368-4DCE-9760-A91E463FC801}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
